--- a/Airbnb - Data Retrieval Protocol.xlsx
+++ b/Airbnb - Data Retrieval Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bb\airbnb\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bb\airbnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CB7850-A300-4C44-9E8D-5EDB87AD1B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015B3CD-E788-4635-BC11-6133D5D8234B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="32730" yWindow="1815" windowWidth="21600" windowHeight="11385" tabRatio="215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="2" r:id="rId1"/>
@@ -892,8 +892,8 @@
   </sheetPr>
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2954,7 +2954,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
